--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\react_project\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76A7B18-ADDE-4739-96A0-E83F7BBAFD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>姓名</t>
   </si>
@@ -40,23 +39,35 @@
   </si>
   <si>
     <t>新增功能</t>
+  </si>
+  <si>
+    <t>王紹丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.建立user table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.heroku部屬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -396,19 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,49 +442,60 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44359</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
     </row>
   </sheetData>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\Desktop\react_project\final-project-webprograming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C7DB9-FA58-4681-AFF8-6E954F39CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>姓名</t>
   </si>
@@ -51,23 +52,41 @@
   <si>
     <t>2.heroku部屬</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉季儒</t>
+  </si>
+  <si>
+    <t>1.完成登入頁面</t>
+  </si>
+  <si>
+    <t>1.製作ServerTalk頁面</t>
+  </si>
+  <si>
+    <t>1.talk區塊</t>
+  </si>
+  <si>
+    <t>2.channel區塊</t>
+  </si>
+  <si>
+    <t>1.身分組</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -407,101 +426,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="2" max="3" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="4"/>
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>44359</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="B4" s="2"/>
-      <c r="D4" t="s">
+      <c r="C4" s="2"/>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
+      <c r="B6" s="2">
+        <v>44360</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="B14" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+    </row>
+    <row r="41" spans="2:3">
       <c r="B41" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C7DB9-FA58-4681-AFF8-6E954F39CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53EE84B-C3FE-4699-90B4-78B7FA2B8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>姓名</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>1.身分組</t>
+  </si>
+  <si>
+    <t>1.製作ServerChannelRoom群組</t>
+  </si>
+  <si>
+    <t>1.語音顯示區域</t>
+  </si>
+  <si>
+    <t>2.聊天區域</t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -524,6 +533,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="2">
+        <v>44363</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="14" spans="1:15">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53EE84B-C3FE-4699-90B4-78B7FA2B8AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297AAC1-626C-43A7-92E2-7C44914009DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>姓名</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>2.聊天區域</t>
+  </si>
+  <si>
+    <t>1.製作ServerChat顯示內容</t>
   </si>
 </sst>
 </file>
@@ -438,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -556,8 +559,21 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>44363</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="2"/>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297AAC1-626C-43A7-92E2-7C44914009DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17467884-92FE-4268-A13A-55A18E6A5694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>姓名</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>1.製作ServerChat顯示內容</t>
+  </si>
+  <si>
+    <t>(大致完成)</t>
+  </si>
+  <si>
+    <t>2.語音顯示區域</t>
+  </si>
+  <si>
+    <t>2.製作SettingPage</t>
   </si>
 </sst>
 </file>
@@ -441,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -560,7 +569,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="2">
-        <v>44363</v>
+        <v>44365</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -575,27 +584,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="16" spans="1:15">
+      <c r="B16" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:13">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:13">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:13">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:13">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17467884-92FE-4268-A13A-55A18E6A5694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A4264-6024-4F44-8AE5-A348D43BA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>姓名</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>2.製作SettingPage</t>
+  </si>
+  <si>
+    <t>3.Condictional Route</t>
+  </si>
+  <si>
+    <t>1.資料串接</t>
   </si>
 </sst>
 </file>
@@ -450,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -604,6 +610,9 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
+      <c r="I17" t="s">
+        <v>22</v>
+      </c>
       <c r="M17" t="s">
         <v>19</v>
       </c>
@@ -611,6 +620,11 @@
     <row r="18" spans="2:13">
       <c r="E18" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="E19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:13">

--- a/工作日誌.xlsx
+++ b/工作日誌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9876\Documents\GitHub\final-project-webprograming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A4264-6024-4F44-8AE5-A348D43BA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59041C9D-7988-46B5-A99E-BAA5C7A6D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>姓名</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>1.資料串接</t>
+  </si>
+  <si>
+    <t>1.爆肝做完啦!!!</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -628,8 +631,15 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2">
+        <v>44367</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="2"/>
